--- a/template/Digit Span.xlsx
+++ b/template/Digit Span.xlsx
@@ -1047,7 +1047,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E17:E18"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1076,13 +1076,14 @@
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="3">
-        <f>SUM(F5:F20)</f>
+        <f>SUM(E5:E20)</f>
         <v>0</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3">
-        <v>3</v>
-      </c>
+      <c r="C2" s="3">
+        <f>SUM(D5:D20)</f>
+        <v>0</v>
+      </c>
+      <c r="D2" s="3"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
